--- a/ITProjectManagement/BA/SpecsWireframes/ThemeColorPalette001.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/ThemeColorPalette001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ProjectExecution\BA\SpecsWireframes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectManagement\BA\SpecsWireframes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/ITProjectManagement/BA/SpecsWireframes/ThemeColorPalette001.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/ThemeColorPalette001.xlsx
@@ -15,7 +15,7 @@
     <sheet name="ThemeColors" sheetId="4" r:id="rId1"/>
     <sheet name="BlueThemePalette" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1005,7 +1005,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ITProjectManagement/BA/SpecsWireframes/ThemeColorPalette001.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/ThemeColorPalette001.xlsx
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="ThemeColors" sheetId="4" r:id="rId1"/>
-    <sheet name="BlueThemePalette" sheetId="1" r:id="rId2"/>
+    <sheet name="Aqua" sheetId="5" r:id="rId2"/>
+    <sheet name="BlueThemePalette" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
   <si>
     <t>Color #</t>
   </si>
@@ -110,6 +111,30 @@
   </si>
   <si>
     <t>Version 0.1</t>
+  </si>
+  <si>
+    <t>3f</t>
+  </si>
+  <si>
+    <t>1f</t>
+  </si>
+  <si>
+    <t>5f</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Highlights</t>
+  </si>
+  <si>
+    <t>Alerts &amp; Danger</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
@@ -181,7 +206,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +285,80 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F9FFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7FFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7F00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFFF1F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F5FBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -493,11 +590,366 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -573,6 +1025,117 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,16 +1144,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF7F4F"/>
-      <color rgb="FF4F7FFF"/>
-      <color rgb="FF6F6FFF"/>
-      <color rgb="FF5F5FFF"/>
-      <color rgb="FF19C139"/>
-      <color rgb="FFFF9900"/>
-      <color rgb="FF7F0F0F"/>
-      <color rgb="FFAF4F4F"/>
-      <color rgb="FFFFEFEF"/>
-      <color rgb="FFFFDFDF"/>
+      <color rgb="FF3FFFFF"/>
+      <color rgb="FF3F9FFF"/>
+      <color rgb="FF0F5FBF"/>
+      <color rgb="FF0F5F9F"/>
+      <color rgb="FF0F9F5F"/>
+      <color rgb="FF00BFBF"/>
+      <color rgb="FF0F9F7F"/>
+      <color rgb="FF1F7FBF"/>
+      <color rgb="FF0F5F7F"/>
+      <color rgb="FF005FBF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -999,26 +1562,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="72">
+        <v>1</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="59">
+        <v>15</v>
+      </c>
+      <c r="E3" s="59">
+        <v>95</v>
+      </c>
+      <c r="F3" s="59">
+        <v>191</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="73">
+        <v>2</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2">
+        <v>159</v>
+      </c>
+      <c r="F4" s="2">
+        <v>255</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="65"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="73">
+        <v>3</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>191</v>
+      </c>
+      <c r="F5" s="2">
+        <v>255</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="73">
+        <v>4</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="2">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2">
+        <v>255</v>
+      </c>
+      <c r="F6" s="2">
+        <v>255</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="45"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="74">
+        <v>5</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="2">
+        <v>191</v>
+      </c>
+      <c r="E7" s="2">
+        <v>255</v>
+      </c>
+      <c r="F7" s="2">
+        <v>255</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="75">
+        <v>6</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="2">
+        <v>255</v>
+      </c>
+      <c r="E8" s="2">
+        <v>255</v>
+      </c>
+      <c r="F8" s="2">
+        <v>255</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="76">
+        <v>7</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="63">
+        <v>255</v>
+      </c>
+      <c r="E9" s="63">
+        <v>127</v>
+      </c>
+      <c r="F9" s="63">
+        <v>0</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="73">
+        <v>8</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="2">
+        <v>255</v>
+      </c>
+      <c r="E10" s="2">
+        <v>191</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="49"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="77">
+        <v>9</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="42">
+        <v>223</v>
+      </c>
+      <c r="E11" s="42">
+        <v>255</v>
+      </c>
+      <c r="F11" s="42">
+        <v>31</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="78">
+        <v>10</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0</v>
+      </c>
+      <c r="E12" s="59">
+        <v>255</v>
+      </c>
+      <c r="F12" s="59">
+        <v>127</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="73">
+        <v>11</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>255</v>
+      </c>
+      <c r="F13" s="2">
+        <v>191</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="79">
+        <v>12</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="42">
+        <v>255</v>
+      </c>
+      <c r="E14" s="42">
+        <v>127</v>
+      </c>
+      <c r="F14" s="42">
+        <v>255</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C3:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H7:I14 I5 G5 G9:G14 I6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="32.5703125" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1974,7 @@
       </c>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="27">
         <v>1</v>
       </c>
@@ -1070,7 +1999,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="27">
         <v>2</v>
       </c>
@@ -1095,7 +2024,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27">
         <v>3</v>
       </c>
@@ -1120,7 +2049,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27">
         <v>4</v>
       </c>
@@ -1145,7 +2074,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27">
         <v>5</v>
       </c>
@@ -1170,7 +2099,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27">
         <v>6</v>
       </c>
@@ -1195,7 +2124,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27">
         <v>7</v>
       </c>
@@ -1220,7 +2149,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27">
         <v>8</v>
       </c>
@@ -1245,7 +2174,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -1270,7 +2199,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="27">
         <v>10</v>
       </c>
@@ -1295,7 +2224,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27">
         <v>11</v>
       </c>
@@ -1320,7 +2249,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27">
         <v>12</v>
       </c>
@@ -1345,7 +2274,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="29">
         <v>13</v>
       </c>

--- a/ITProjectManagement/BA/SpecsWireframes/ThemeColorPalette001.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/ThemeColorPalette001.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
   <si>
     <t>Color #</t>
   </si>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +205,21 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,12 +306,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00BFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,12 +360,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0F5FBF"/>
+        <fgColor rgb="FF005FBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFDFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF001F5F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -621,153 +640,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -780,15 +653,113 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,7 +767,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -806,141 +777,137 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color theme="1"/>
       </bottom>
       <diagonal/>
@@ -949,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1014,6 +981,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,115 +1004,124 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,16 +1132,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF001F5F"/>
+      <color rgb="FF000F4F"/>
       <color rgb="FF3FFFFF"/>
+      <color rgb="FF00BFFF"/>
       <color rgb="FF3F9FFF"/>
+      <color rgb="FF005FBF"/>
+      <color rgb="FFBFDFFF"/>
       <color rgb="FF0F5FBF"/>
+      <color rgb="FF00617F"/>
       <color rgb="FF0F5F9F"/>
-      <color rgb="FF0F9F5F"/>
-      <color rgb="FF00BFBF"/>
-      <color rgb="FF0F9F7F"/>
-      <color rgb="FF1F7FBF"/>
-      <color rgb="FF0F5F7F"/>
-      <color rgb="FF005FBF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1471,31 +1459,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1562,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,350 +1565,375 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72">
+      <c r="B3" s="57">
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="59">
+        <v>0</v>
+      </c>
+      <c r="E3" s="59">
+        <v>31</v>
+      </c>
+      <c r="F3" s="59">
+        <v>95</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D4" s="37">
         <v>15</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E4" s="37">
         <v>95</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F4" s="37">
         <v>191</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="67"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73">
-        <v>2</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="2">
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="63">
+        <v>3</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="35">
         <v>63</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="35">
         <v>159</v>
       </c>
-      <c r="F4" s="2">
-        <v>255</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F5" s="35">
+        <v>255</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="65"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73">
-        <v>3</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="2">
+      <c r="I5" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="61">
+        <v>4</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="45">
         <v>191</v>
       </c>
-      <c r="F5" s="2">
-        <v>255</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F6" s="45">
+        <v>255</v>
+      </c>
+      <c r="G6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="73">
-        <v>4</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="2">
+      <c r="I6" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="63">
+        <v>5</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="35">
         <v>63</v>
       </c>
-      <c r="E6" s="2">
-        <v>255</v>
-      </c>
-      <c r="F6" s="2">
-        <v>255</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="E7" s="35">
+        <v>255</v>
+      </c>
+      <c r="F7" s="35">
+        <v>255</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="45"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="74">
-        <v>5</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="2">
+      <c r="H7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="61">
+        <v>6</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="35">
         <v>191</v>
       </c>
-      <c r="E7" s="2">
-        <v>255</v>
-      </c>
-      <c r="F7" s="2">
-        <v>255</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E8" s="35">
+        <v>223</v>
+      </c>
+      <c r="F8" s="35">
+        <v>255</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="46"/>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="75">
-        <v>6</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="2">
-        <v>255</v>
-      </c>
-      <c r="E8" s="2">
-        <v>255</v>
-      </c>
-      <c r="F8" s="2">
-        <v>255</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="47"/>
+      <c r="H8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="76">
+      <c r="B9" s="68">
         <v>7</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="30">
+        <v>255</v>
+      </c>
+      <c r="E9" s="30">
+        <v>255</v>
+      </c>
+      <c r="F9" s="30">
+        <v>255</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="53"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="57">
+        <v>8</v>
+      </c>
+      <c r="C10" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="63">
-        <v>255</v>
-      </c>
-      <c r="E9" s="63">
+      <c r="D10" s="76">
+        <v>255</v>
+      </c>
+      <c r="E10" s="76">
         <v>127</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F10" s="76">
         <v>0</v>
       </c>
-      <c r="G9" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="63" t="s">
+      <c r="G10" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I10" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="73">
-        <v>8</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="2">
-        <v>255</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="63">
+        <v>9</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="35">
+        <v>255</v>
+      </c>
+      <c r="E11" s="35">
         <v>191</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="35">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G11" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I11" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="49"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77">
+      <c r="J11" s="70"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="81">
+        <v>10</v>
+      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83">
+        <v>223</v>
+      </c>
+      <c r="E12" s="83">
+        <v>255</v>
+      </c>
+      <c r="F12" s="83">
+        <v>31</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="71"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="57">
+        <v>11</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="76">
+        <v>0</v>
+      </c>
+      <c r="E13" s="76">
+        <v>255</v>
+      </c>
+      <c r="F13" s="76">
+        <v>127</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="61">
+        <v>12</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
+        <v>255</v>
+      </c>
+      <c r="F14" s="35">
+        <v>191</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="42">
-        <v>223</v>
-      </c>
-      <c r="E11" s="42">
-        <v>255</v>
-      </c>
-      <c r="F11" s="42">
-        <v>31</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="50"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78">
-        <v>10</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="59">
-        <v>0</v>
-      </c>
-      <c r="E12" s="59">
-        <v>255</v>
-      </c>
-      <c r="F12" s="59">
+      <c r="J14" s="73"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="68">
+        <v>13</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="30">
+        <v>255</v>
+      </c>
+      <c r="E15" s="30">
         <v>127</v>
       </c>
-      <c r="G12" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="61" t="s">
+      <c r="F15" s="30">
+        <v>255</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="73">
-        <v>11</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>255</v>
-      </c>
-      <c r="F13" s="2">
-        <v>191</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="52"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="79">
-        <v>12</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="42">
-        <v>255</v>
-      </c>
-      <c r="E14" s="42">
-        <v>127</v>
-      </c>
-      <c r="F14" s="42">
-        <v>255</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="53"/>
+      <c r="I15" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H7:I14 I5 G5 G9:G14 I6" numberStoredAsText="1"/>
+    <ignoredError sqref="H9:I15 I6 G6 G10:G15 I7 I8 G3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
